--- a/data_year/zb/科技/高技术产业生产经营情况/高技术产业利税额.xlsx
+++ b/data_year/zb/科技/高技术产业生产经营情况/高技术产业利税额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,489 +538,335 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4675278.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5878767.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1288921.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9975114.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1648653.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7527421.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19558867.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3496088.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>529463.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2342811.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8318687.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>30191962.7</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6225124.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9183063.6</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4867103.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2981888</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1069701.3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10132414.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>201263.2</v>
+      </c>
       <c r="U2" t="n">
-        <v>10334400</v>
+        <v>67531016.59999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6071033.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7181081.7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1647757.6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11254137.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2069095.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9250177.199999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23747066.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3435821.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>658926.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2985464</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8394813.800000001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>33566790.8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6785949.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10177037.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4877397.8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4706334.3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1397098.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>12382661.1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>260861</v>
+      </c>
       <c r="U3" t="n">
-        <v>20895651.8</v>
+        <v>78138170.40000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7521600.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7994384.7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2235552.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13182288.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2540856.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10535241.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28570105.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4512209.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1051920.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3766588</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9237385.800000001</v>
+      </c>
+      <c r="M4" t="n">
+        <v>42864557</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8881761.199999999</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11156572.7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1727924.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5066088</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1816915.6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>13258295.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>327313.3</v>
+      </c>
       <c r="U4" t="n">
-        <v>40238600</v>
+        <v>94943392.59999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3569376</v>
+        <v>8935148.9</v>
       </c>
       <c r="C5" t="n">
-        <v>4159571</v>
+        <v>9258804.9</v>
       </c>
       <c r="D5" t="n">
-        <v>995503</v>
+        <v>2624806.1</v>
       </c>
       <c r="E5" t="n">
-        <v>7920433</v>
+        <v>15027750.6</v>
       </c>
       <c r="F5" t="n">
-        <v>1473970</v>
+        <v>2647494.3</v>
       </c>
       <c r="G5" t="n">
-        <v>5633540</v>
+        <v>11906299.2</v>
       </c>
       <c r="H5" t="n">
-        <v>15176386</v>
+        <v>33162465.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2108141</v>
+        <v>5893561.6</v>
       </c>
       <c r="J5" t="n">
-        <v>355008</v>
+        <v>1536070.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1781559</v>
+        <v>4269184.4</v>
       </c>
       <c r="L5" t="n">
-        <v>5035244</v>
+        <v>10693482.6</v>
       </c>
       <c r="M5" t="n">
-        <v>18581945</v>
+        <v>52778634.5</v>
       </c>
       <c r="N5" t="n">
-        <v>2486802</v>
+        <v>10725409.5</v>
       </c>
       <c r="O5" t="n">
-        <v>6077714</v>
+        <v>11483688.9</v>
       </c>
       <c r="P5" t="n">
-        <v>3698123</v>
+        <v>1436559.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1873658</v>
+        <v>5908510.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1133427</v>
+        <v>1838967</v>
       </c>
       <c r="S5" t="n">
-        <v>7465028</v>
+        <v>17168818.7</v>
       </c>
       <c r="T5" t="n">
-        <v>136219</v>
+        <v>387331.8</v>
       </c>
       <c r="U5" t="n">
-        <v>46603012</v>
+        <v>111170055.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4675278.1</v>
+        <v>9869334</v>
       </c>
       <c r="C6" t="n">
-        <v>5878767.5</v>
+        <v>9935930</v>
       </c>
       <c r="D6" t="n">
-        <v>1288921.4</v>
+        <v>3884595.6</v>
       </c>
       <c r="E6" t="n">
-        <v>9975114.9</v>
+        <v>17207730.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1648653.7</v>
+        <v>3295160.4</v>
       </c>
       <c r="G6" t="n">
-        <v>7527421.2</v>
+        <v>13231090.4</v>
       </c>
       <c r="H6" t="n">
-        <v>19558867.8</v>
+        <v>37248272.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3496088.4</v>
+        <v>4406783.5</v>
       </c>
       <c r="J6" t="n">
-        <v>529463.9</v>
+        <v>1516453.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2342811.6</v>
+        <v>4766210.5</v>
       </c>
       <c r="L6" t="n">
-        <v>8318687.2</v>
+        <v>12702481</v>
       </c>
       <c r="M6" t="n">
-        <v>30191962.7</v>
+        <v>56851833.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6225124.5</v>
+        <v>11070380.1</v>
       </c>
       <c r="O6" t="n">
-        <v>9183063.6</v>
+        <v>12089043.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4867103.1</v>
+        <v>1935799.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>2981888</v>
+        <v>5818782.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1069701.3</v>
+        <v>2465441</v>
       </c>
       <c r="S6" t="n">
-        <v>10132414.1</v>
+        <v>18669372.9</v>
       </c>
       <c r="T6" t="n">
-        <v>201263.2</v>
+        <v>363968.8</v>
       </c>
       <c r="U6" t="n">
-        <v>67531016.59999999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6071033.1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7181081.7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1647757.6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11254137.8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2069095.5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9250177.199999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23747066.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3435821.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>658926.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2985464</v>
-      </c>
-      <c r="L7" t="n">
-        <v>8394813.800000001</v>
-      </c>
-      <c r="M7" t="n">
-        <v>33566790.8</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6785949.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>10177037.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4877397.8</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4706334.3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1397098.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>12382661.1</v>
-      </c>
-      <c r="T7" t="n">
-        <v>260861</v>
-      </c>
-      <c r="U7" t="n">
-        <v>78138170.40000001</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7521600.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7994384.7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2235552.1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>13182288.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2540856.9</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10535241.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>28570105.7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4512209.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1051920.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3766588</v>
-      </c>
-      <c r="L8" t="n">
-        <v>9237385.800000001</v>
-      </c>
-      <c r="M8" t="n">
-        <v>42864557</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8881761.199999999</v>
-      </c>
-      <c r="O8" t="n">
-        <v>11156572.7</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1727924.8</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5066088</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1816915.6</v>
-      </c>
-      <c r="S8" t="n">
-        <v>13258295.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>327313.3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>94943392.59999999</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8935148.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9258804.9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2624806.1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>15027750.6</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2647494.3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>11906299.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>33162465.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5893561.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1536070.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4269184.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>10693482.6</v>
-      </c>
-      <c r="M9" t="n">
-        <v>52778634.5</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10725409.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>11483688.9</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1436559.8</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5908510.9</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1838967</v>
-      </c>
-      <c r="S9" t="n">
-        <v>17168818.7</v>
-      </c>
-      <c r="T9" t="n">
-        <v>387331.8</v>
-      </c>
-      <c r="U9" t="n">
-        <v>111170055.1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9869334</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9935930</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3884595.6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>17207730.5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3295160.4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>13231090.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>37248272.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4406783.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1516453.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4766210.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>12702481</v>
-      </c>
-      <c r="M10" t="n">
-        <v>56851833.1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11070380.1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>12089043.2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1935799.8</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5818782.3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2465441</v>
-      </c>
-      <c r="S10" t="n">
-        <v>18669372.9</v>
-      </c>
-      <c r="T10" t="n">
-        <v>363968.8</v>
-      </c>
-      <c r="U10" t="n">
         <v>121885679.9</v>
       </c>
     </row>
